--- a/InputFolder/APITemplate.xlsx
+++ b/InputFolder/APITemplate.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q10786\Desktop\TestAPIAutomation\Hackathon_UseCase\InputFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\eclipse-workspace\QuickTestAPI-V7\InputFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7860" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7860" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Google_TestAPI2" sheetId="2" r:id="rId1"/>
     <sheet name="Date_TestAPI1" sheetId="5" r:id="rId2"/>
     <sheet name="Google_TestAPI3" sheetId="3" r:id="rId3"/>
-    <sheet name="Wem_Utilities_API" sheetId="4" r:id="rId4"/>
-    <sheet name="SPARTA_API" sheetId="6" r:id="rId5"/>
-    <sheet name="Google_TestAPI1" sheetId="1" r:id="rId6"/>
+    <sheet name="SPARTA_API" sheetId="6" r:id="rId4"/>
+    <sheet name="Google_TestAPI1" sheetId="1" r:id="rId5"/>
+    <sheet name="Google_TestAPI4" sheetId="7" r:id="rId6"/>
+    <sheet name="Google_TestAPI5" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="47">
   <si>
     <t>domain</t>
   </si>
@@ -111,76 +112,67 @@
     <t>test@test.com</t>
   </si>
   <si>
+    <t>./InputFolder/login.json</t>
+  </si>
+  <si>
+    <t>./InputFolder/loginFail.json</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>QueryParameter</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>https://postman-echo.com</t>
+  </si>
+  <si>
+    <t>24/10/2016</t>
+  </si>
+  <si>
+    <t>/time/leap</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>https://kcc-oc-saledocuments-api-qa.cloudhub.io</t>
+  </si>
+  <si>
+    <t>/api/createSalesOrder</t>
+  </si>
+  <si>
+    <t>Internal Server Error</t>
+  </si>
+  <si>
+    <t>client_id</t>
+  </si>
+  <si>
+    <t>7fdecc3621a24de7bd1ae68085662fb2</t>
+  </si>
+  <si>
+    <t>client_secret</t>
+  </si>
+  <si>
+    <t>79d902E6DC5e447a845737AC15Dcc453</t>
+  </si>
+  <si>
+    <t>./InputFolder/BrazilAPIPass.json</t>
+  </si>
+  <si>
+    <t>./InputFolder/BrazilAPIFail.json</t>
+  </si>
+  <si>
+    <t>(1-5,RandomNumber)</t>
+  </si>
+  <si>
     <t>(1-5,RandomString)</t>
   </si>
   <si>
-    <t>./InputFolder/login.json</t>
-  </si>
-  <si>
-    <t>./InputFolder/loginFail.json</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>sc_apikey</t>
-  </si>
-  <si>
-    <t>QueryParameter</t>
-  </si>
-  <si>
-    <t>/sitecore/api/jss/dictionary/JssReactWeb/en</t>
-  </si>
-  <si>
-    <t>0BF7C067-4B3F-4AEB-A2CD-61F0A58276B9</t>
-  </si>
-  <si>
-    <t>0BF7C7-4B3F-4AEB-A2CD-61F0A58276B9</t>
-  </si>
-  <si>
-    <t>https://qa1.v2.wemshowcase.com</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>https://postman-echo.com</t>
-  </si>
-  <si>
-    <t>24/10/2016</t>
-  </si>
-  <si>
-    <t>/time/leap</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>https://kcc-oc-saledocuments-api-qa.cloudhub.io</t>
-  </si>
-  <si>
-    <t>/api/createSalesOrder</t>
-  </si>
-  <si>
-    <t>Internal Server Error</t>
-  </si>
-  <si>
-    <t>client_id</t>
-  </si>
-  <si>
-    <t>7fdecc3621a24de7bd1ae68085662fb2</t>
-  </si>
-  <si>
-    <t>client_secret</t>
-  </si>
-  <si>
-    <t>79d902E6DC5e447a845737AC15Dcc453</t>
-  </si>
-  <si>
-    <t>./InputFolder/BrazilAPIPass.json</t>
-  </si>
-  <si>
-    <t>./InputFolder/BrazilAPIFail.json</t>
+    <t>(1-5,RandomAlphaNum)</t>
   </si>
 </sst>
 </file>
@@ -621,15 +613,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -643,7 +635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +645,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -663,7 +655,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,7 +665,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -685,7 +677,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -697,7 +689,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -709,7 +701,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -754,15 +746,15 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,37 +768,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -818,7 +810,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -830,7 +822,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -842,18 +834,18 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -884,18 +876,18 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -909,7 +901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +911,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -929,7 +921,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -939,7 +931,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -951,7 +943,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -963,7 +955,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -975,7 +967,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -989,7 +981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -997,10 +989,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1033,155 +1025,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>400</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"GET,POST"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>"QueryParameter,FormParameter,NormalParameter,FileUpload"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
-  </headerFooter>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
-  </customProperties>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="11"/>
+    <col min="4" max="4" width="27.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
@@ -1195,17 +1054,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -1216,17 +1075,17 @@
       <c r="D3" s="12"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
@@ -1238,43 +1097,43 @@
       </c>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C6" s="12">
         <v>500</v>
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
@@ -1286,7 +1145,7 @@
       </c>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
@@ -1294,10 +1153,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1307,26 +1166,33 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
+  </headerFooter>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1340,7 +1206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1216,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1360,7 +1226,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1370,7 +1236,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1382,7 +1248,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1260,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,7 +1272,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1414,10 +1280,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1441,4 +1307,308 @@
     <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>400</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"GET,POST"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
+      <formula1>"QueryParameter,FormParameter,NormalParameter"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+      <formula1>"QueryParameter,FormParameter,NormalParameter,FileUpload"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
+  </headerFooter>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId5"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>400</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+      <formula1>"QueryParameter,FormParameter,NormalParameter,FileUpload"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
+      <formula1>"QueryParameter,FormParameter,NormalParameter"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"GET,POST"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
+  </headerFooter>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId5"/>
+  </customProperties>
+</worksheet>
 </file>
--- a/InputFolder/APITemplate.xlsx
+++ b/InputFolder/APITemplate.xlsx
@@ -9,16 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7860" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7860" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Google_TestAPI2" sheetId="2" r:id="rId1"/>
-    <sheet name="Date_TestAPI1" sheetId="5" r:id="rId2"/>
-    <sheet name="Google_TestAPI3" sheetId="3" r:id="rId3"/>
-    <sheet name="SPARTA_API" sheetId="6" r:id="rId4"/>
-    <sheet name="Google_TestAPI1" sheetId="1" r:id="rId5"/>
-    <sheet name="Google_TestAPI4" sheetId="7" r:id="rId6"/>
-    <sheet name="Google_TestAPI5" sheetId="8" r:id="rId7"/>
+    <sheet name="TestAPI-JSONBody" sheetId="2" r:id="rId1"/>
+    <sheet name="TestAPI-JSONFile" sheetId="6" r:id="rId2"/>
+    <sheet name="TestAPI-Date" sheetId="5" r:id="rId3"/>
+    <sheet name="TestAPI-Random" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
   <si>
     <t>domain</t>
   </si>
@@ -107,15 +104,6 @@
   </si>
   <si>
     <t>eve.holt@reqres.in</t>
-  </si>
-  <si>
-    <t>test@test.com</t>
-  </si>
-  <si>
-    <t>./InputFolder/login.json</t>
-  </si>
-  <si>
-    <t>./InputFolder/loginFail.json</t>
   </si>
   <si>
     <t>GET</t>
@@ -292,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -302,9 +290,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -610,7 +595,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +603,7 @@
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,7 +616,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -708,10 +693,10 @@
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -740,10 +725,163 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11">
+        <v>200</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="11">
+        <v>500</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"GET,POST"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
+  </headerFooter>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +902,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -772,8 +910,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>31</v>
+      <c r="B2" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -783,7 +921,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -793,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -836,16 +974,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -871,12 +1009,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +1022,7 @@
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -897,7 +1035,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -974,11 +1112,11 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>25</v>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,10 +1127,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1010,605 +1148,14 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C8" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
   </headerFooter>
   <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId5"/>
-  </customProperties>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="12">
-        <v>200</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="12">
-        <v>500</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"GET,POST"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
-  </headerFooter>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
-  </customProperties>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>400</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>"QueryParameter,FormParameter,NormalParameter,FileUpload"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"GET,POST"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
-  </headerFooter>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
-  </customProperties>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>400</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"GET,POST"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
-      <formula1>"QueryParameter,FormParameter,NormalParameter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>"QueryParameter,FormParameter,NormalParameter,FileUpload"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C8" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
-  </headerFooter>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId5"/>
-  </customProperties>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>400</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>"QueryParameter,FormParameter,NormalParameter,FileUpload"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
-      <formula1>"QueryParameter,FormParameter,NormalParameter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"GET,POST"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C8" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
-  </headerFooter>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId5"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId4"/>
   </customProperties>
 </worksheet>
 </file>
--- a/InputFolder/APITemplate.xlsx
+++ b/InputFolder/APITemplate.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7860" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="TestAPI-JSONBody" sheetId="2" r:id="rId1"/>
-    <sheet name="TestAPI-JSONFile" sheetId="6" r:id="rId2"/>
+    <sheet name="KCSPARTA" sheetId="2" r:id="rId1"/>
+    <sheet name="WEMUTILITIES" sheetId="6" r:id="rId2"/>
     <sheet name="TestAPI-Date" sheetId="5" r:id="rId3"/>
-    <sheet name="TestAPI-Random" sheetId="3" r:id="rId4"/>
+    <sheet name="TestAPI-RandomGenerator" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
   <si>
     <t>domain</t>
   </si>
@@ -83,17 +83,6 @@
     <t>application/json</t>
   </si>
   <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>{"password": "testqa",
-    "email": "eve.holt@reqres.in"}</t>
-  </si>
-  <si>
-    <t>{"password": "testqa",
-    "email": "eve.holt@test.in"}</t>
-  </si>
-  <si>
     <t>/api/register</t>
   </si>
   <si>
@@ -151,9 +140,6 @@
     <t>./InputFolder/BrazilAPIPass.json</t>
   </si>
   <si>
-    <t>./InputFolder/BrazilAPIFail.json</t>
-  </si>
-  <si>
     <t>(1-5,RandomNumber)</t>
   </si>
   <si>
@@ -161,13 +147,59 @@
   </si>
   <si>
     <t>(1-5,RandomAlphaNum)</t>
+  </si>
+  <si>
+    <t>https://qa1.v2.wemshowcase.com</t>
+  </si>
+  <si>
+    <t>/sitecore/api/jss/dictionary/JssReactWeb/en</t>
+  </si>
+  <si>
+    <t>sc_apikey</t>
+  </si>
+  <si>
+    <t>0BF7C067-4B3F-4AEB-A2CD-61F0A58276B9</t>
+  </si>
+  <si>
+    <t>0BF7C7-4B3F-4AEB-A2CD-61F0A58276B9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "Z_YYKC_SALES_ORDER_CREATE": {
+        "IWA_HEADER": {
+            "SALES_ORG": "7024",
+            "DOC_TYPE": "ZSMP",
+            "DIVISION": "02",
+            "DISTR_CHAN": "50"
+        },
+        "IW_TESTRUN": "X",
+        "IW_APPNAME": "SFDC_KCP_DIGTRANSF",
+        "ITB_PARTNER": {
+            "item": [
+                {
+                    "PARTN_ROLE": "18"
+                }
+            ]
+        },
+        "ITB_ITEMS": {
+            "item": [
+                {
+                    "TARGET_QTY": "c",
+                    "MATERIAL": "abc",
+                    "ITM_NUMBER": "lkj"
+                }
+            ]
+        }
+    },
+    "region": "1"
+} </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +234,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,40 +258,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -280,35 +299,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -592,112 +626,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>200</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4">
+        <v>500</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"GET,POST"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+      <formula1>"QueryParameter,FormParameter,NormalParameter,FileUpload"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
+  </headerFooter>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15">
+        <v>200</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="15">
         <v>400</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -723,165 +913,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11">
-        <v>200</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="11">
-        <v>500</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"GET,POST"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
-  </headerFooter>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
-  </customProperties>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,97 +930,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="13">
+        <v>200</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13">
+        <v>400</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>400</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1014,7 +1051,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,111 +1063,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15">
+        <v>200</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="15">
+        <v>400</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>400</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="D8" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>43</v>
+      <c r="B9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/InputFolder/APITemplate.xlsx
+++ b/InputFolder/APITemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\eclipse-workspace\QuickTestAPI-V7\InputFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\393042\OneDrive - Cognizant\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7860" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KCSPARTA" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>domain</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>/time/leap</t>
-  </si>
-  <si>
-    <t>asdasd</t>
   </si>
   <si>
     <t>https://kcc-oc-saledocuments-api-qa.cloudhub.io</t>
@@ -198,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -629,7 +626,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -679,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -701,7 +698,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4">
         <v>500</v>
@@ -713,10 +710,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -725,10 +722,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -752,10 +749,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -769,9 +766,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
-  </headerFooter>
   <customProperties>
     <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
   </customProperties>
@@ -814,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -835,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -881,13 +875,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -904,9 +898,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
-  </headerFooter>
   <customProperties>
     <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
@@ -917,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,8 +1010,8 @@
       <c r="C8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>28</v>
+      <c r="D8" s="13">
+        <v>1230980</v>
       </c>
     </row>
   </sheetData>
@@ -1037,9 +1028,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
-  </headerFooter>
   <customProperties>
     <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
@@ -1050,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1153,7 +1141,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,10 +1152,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1188,9 +1176,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000K-C Internal Only</oddFooter>
-  </headerFooter>
   <customProperties>
     <customPr name="IbpWorksheetKeyString_GUID" r:id="rId4"/>
   </customProperties>

--- a/InputFolder/APITemplate.xlsx
+++ b/InputFolder/APITemplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>domain</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>https://postman-echo.com</t>
-  </si>
-  <si>
-    <t>24/10/2016</t>
   </si>
   <si>
     <t>/time/leap</t>
@@ -296,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -340,6 +337,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -698,7 +698,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4">
         <v>500</v>
@@ -710,10 +710,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -722,10 +722,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -749,10 +749,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -875,13 +875,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +909,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -1007,8 +1007,8 @@
       <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>26</v>
+      <c r="C8" s="17">
+        <v>42410</v>
       </c>
       <c r="D8" s="13">
         <v>1230980</v>
@@ -1141,7 +1141,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1152,10 +1152,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/InputFolder/APITemplate.xlsx
+++ b/InputFolder/APITemplate.xlsx
@@ -909,7 +909,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,10 +1008,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="17">
-        <v>42410</v>
+        <v>42412</v>
       </c>
       <c r="D8" s="13">
-        <v>1230980</v>
+        <v>12309809</v>
       </c>
     </row>
   </sheetData>

--- a/InputFolder/APITemplate.xlsx
+++ b/InputFolder/APITemplate.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7860" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="KCSPARTA" sheetId="2" r:id="rId1"/>
-    <sheet name="WEMUTILITIES" sheetId="6" r:id="rId2"/>
-    <sheet name="TestAPI-Date" sheetId="5" r:id="rId3"/>
-    <sheet name="TestAPI-RandomGenerator" sheetId="3" r:id="rId4"/>
+    <sheet name="TestAPI-Date" sheetId="5" r:id="rId2"/>
+    <sheet name="TestAPI-RandomGenerator" sheetId="3" r:id="rId3"/>
+    <sheet name="WEMUTILITIES" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -625,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -774,141 +774,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="15">
-        <v>200</v>
-      </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="15">
-        <v>400</v>
-      </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"GET,POST"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>"QueryParameter,FormParameter,NormalParameter,FileUpload"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
-  </customProperties>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1034,7 +902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1180,4 +1048,136 @@
     <customPr name="IbpWorksheetKeyString_GUID" r:id="rId4"/>
   </customProperties>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15">
+        <v>200</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="15">
+        <v>400</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"GET,POST"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+      <formula1>"QueryParameter,FormParameter,NormalParameter,FileUpload"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
+  </customProperties>
+</worksheet>
 </file>
--- a/InputFolder/APITemplate.xlsx
+++ b/InputFolder/APITemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\393042\OneDrive - Cognizant\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/393042_cognizant_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>domain</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>(1-5,RandomNumber)</t>
-  </si>
-  <si>
-    <t>(1-5,RandomString)</t>
   </si>
   <si>
     <t>(1-5,RandomAlphaNum)</t>
@@ -625,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +749,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +774,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +904,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,8 +1005,8 @@
       <c r="C8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>36</v>
+      <c r="D8" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,7 +1020,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1041,11 +1038,12 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
   <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId4"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId5"/>
   </customProperties>
 </worksheet>
 </file>
@@ -1086,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -1107,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -1153,13 +1151,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1180,4 +1178,302 @@
     <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D074815778D014DAE2CB72CD6137DED" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2284aa22568c1f938e382d02a6f2a92a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="e7fe83cc-239e-4c7e-bc60-a10a061faa31" xmlns:ns4="20980f64-a776-4caf-b8d5-65752affc9fb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cda37364ade3913cdc28c68d2fec355" ns1:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="e7fe83cc-239e-4c7e-bc60-a10a061faa31"/>
+    <xsd:import namespace="20980f64-a776-4caf-b8d5-65752affc9fb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="13" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="14" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e7fe83cc-239e-4c7e-bc60-a10a061faa31" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="20980f64-a776-4caf-b8d5-65752affc9fb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="21" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E13D69D6-6DF0-48F0-8F6A-1784890E6F32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e7fe83cc-239e-4c7e-bc60-a10a061faa31"/>
+    <ds:schemaRef ds:uri="20980f64-a776-4caf-b8d5-65752affc9fb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37377C54-AB36-4A9F-A58E-5BD10A051A48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65A6FEFF-C6B7-4421-8AA7-D7D7BC39983F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e7fe83cc-239e-4c7e-bc60-a10a061faa31"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="20980f64-a776-4caf-b8d5-65752affc9fb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputFolder/APITemplate.xlsx
+++ b/InputFolder/APITemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/393042_cognizant_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\393042\OneDrive - Cognizant\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>domain</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>(1-5,RandomNumber)</t>
+  </si>
+  <si>
+    <t>(1-5,RandomString)</t>
   </si>
   <si>
     <t>(1-5,RandomAlphaNum)</t>
@@ -622,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +752,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +777,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +907,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,8 +1008,8 @@
       <c r="C8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>21</v>
+      <c r="D8" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1020,7 +1023,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1038,12 +1041,11 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C8" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
   <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId5"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId4"/>
   </customProperties>
 </worksheet>
 </file>
@@ -1084,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -1105,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -1151,13 +1153,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1178,302 +1180,4 @@
     <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D074815778D014DAE2CB72CD6137DED" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2284aa22568c1f938e382d02a6f2a92a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="e7fe83cc-239e-4c7e-bc60-a10a061faa31" xmlns:ns4="20980f64-a776-4caf-b8d5-65752affc9fb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cda37364ade3913cdc28c68d2fec355" ns1:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="e7fe83cc-239e-4c7e-bc60-a10a061faa31"/>
-    <xsd:import namespace="20980f64-a776-4caf-b8d5-65752affc9fb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="13" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="14" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e7fe83cc-239e-4c7e-bc60-a10a061faa31" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="20980f64-a776-4caf-b8d5-65752affc9fb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="21" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E13D69D6-6DF0-48F0-8F6A-1784890E6F32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="e7fe83cc-239e-4c7e-bc60-a10a061faa31"/>
-    <ds:schemaRef ds:uri="20980f64-a776-4caf-b8d5-65752affc9fb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37377C54-AB36-4A9F-A58E-5BD10A051A48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65A6FEFF-C6B7-4421-8AA7-D7D7BC39983F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e7fe83cc-239e-4c7e-bc60-a10a061faa31"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="20980f64-a776-4caf-b8d5-65752affc9fb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>